--- a/bin/Debug/net6.0-windows/TemplateFormOP10.xlsx
+++ b/bin/Debug/net6.0-windows/TemplateFormOP10.xlsx
@@ -558,324 +558,320 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A1:BX85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CL25" activeCellId="0" sqref="CL25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CG68" activeCellId="0" sqref="CG68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5629,7 +5625,7 @@
       <c r="Q72" s="71"/>
       <c r="R72" s="71"/>
       <c r="S72" s="71"/>
-      <c r="T72" s="76"/>
+      <c r="T72" s="75"/>
       <c r="U72" s="71" t="s">
         <v>19</v>
       </c>
@@ -5947,7 +5943,7 @@
       <c r="BI79" s="29"/>
       <c r="BJ79" s="29"/>
       <c r="BK79" s="29"/>
-      <c r="BL79" s="77"/>
+      <c r="BL79" s="76"/>
       <c r="BM79" s="29" t="s">
         <v>19</v>
       </c>
@@ -5967,37 +5963,37 @@
       <c r="A80" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="78"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="78"/>
-      <c r="R80" s="78"/>
-      <c r="S80" s="78"/>
-      <c r="T80" s="78"/>
-      <c r="U80" s="78"/>
-      <c r="V80" s="78"/>
-      <c r="W80" s="78"/>
-      <c r="X80" s="78"/>
-      <c r="Y80" s="78"/>
-      <c r="Z80" s="78"/>
-      <c r="AA80" s="78"/>
-      <c r="AB80" s="78"/>
-      <c r="AC80" s="78"/>
-      <c r="AD80" s="78"/>
-      <c r="AE80" s="78"/>
-      <c r="AF80" s="78"/>
-      <c r="AG80" s="78"/>
-      <c r="AH80" s="78"/>
-      <c r="AI80" s="78"/>
-      <c r="AJ80" s="78"/>
-      <c r="AK80" s="78"/>
-      <c r="AL80" s="78"/>
-      <c r="AN80" s="79" t="s">
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
+      <c r="Z80" s="77"/>
+      <c r="AA80" s="77"/>
+      <c r="AB80" s="77"/>
+      <c r="AC80" s="77"/>
+      <c r="AD80" s="77"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+      <c r="AH80" s="77"/>
+      <c r="AI80" s="77"/>
+      <c r="AJ80" s="77"/>
+      <c r="AK80" s="77"/>
+      <c r="AL80" s="77"/>
+      <c r="AN80" s="78" t="s">
         <v>61</v>
       </c>
       <c r="AO80" s="3"/>
@@ -6056,40 +6052,40 @@
       <c r="A82" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
-      <c r="N82" s="78"/>
-      <c r="O82" s="78"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="78"/>
-      <c r="R82" s="78"/>
-      <c r="S82" s="78"/>
-      <c r="T82" s="78"/>
-      <c r="U82" s="78"/>
-      <c r="V82" s="78"/>
-      <c r="W82" s="78"/>
-      <c r="X82" s="78"/>
-      <c r="Y82" s="78"/>
-      <c r="Z82" s="78"/>
-      <c r="AA82" s="78"/>
-      <c r="AB82" s="78"/>
-      <c r="AC82" s="78"/>
-      <c r="AD82" s="78"/>
-      <c r="AE82" s="78"/>
-      <c r="AF82" s="78"/>
-      <c r="AG82" s="78"/>
-      <c r="AH82" s="78"/>
-      <c r="AI82" s="78"/>
-      <c r="AJ82" s="78"/>
-      <c r="AK82" s="78"/>
-      <c r="AL82" s="78"/>
-      <c r="AM82" s="78"/>
-      <c r="AN82" s="78"/>
-      <c r="AO82" s="78"/>
-      <c r="AP82" s="78"/>
-      <c r="AQ82" s="78"/>
-      <c r="AR82" s="78"/>
-      <c r="AS82" s="78"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="77"/>
+      <c r="R82" s="77"/>
+      <c r="S82" s="77"/>
+      <c r="T82" s="77"/>
+      <c r="U82" s="77"/>
+      <c r="V82" s="77"/>
+      <c r="W82" s="77"/>
+      <c r="X82" s="77"/>
+      <c r="Y82" s="77"/>
+      <c r="Z82" s="77"/>
+      <c r="AA82" s="77"/>
+      <c r="AB82" s="77"/>
+      <c r="AC82" s="77"/>
+      <c r="AD82" s="77"/>
+      <c r="AE82" s="77"/>
+      <c r="AF82" s="77"/>
+      <c r="AG82" s="77"/>
+      <c r="AH82" s="77"/>
+      <c r="AI82" s="77"/>
+      <c r="AJ82" s="77"/>
+      <c r="AK82" s="77"/>
+      <c r="AL82" s="77"/>
+      <c r="AM82" s="77"/>
+      <c r="AN82" s="77"/>
+      <c r="AO82" s="77"/>
+      <c r="AP82" s="77"/>
+      <c r="AQ82" s="77"/>
+      <c r="AR82" s="77"/>
+      <c r="AS82" s="77"/>
     </row>
     <row r="83" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,7 +6669,7 @@
     <mergeCell ref="V85:AS85"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1.10208333333333" right="0.7875" top="0.689583333333333" bottom="0.39375" header="0.196527777777778" footer="0.511811023622047"/>
+  <pageMargins left="1.10208333333333" right="0.7875" top="0.689583333333333" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="94" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/bin/Debug/net6.0-windows/TemplateFormOP10.xlsx
+++ b/bin/Debug/net6.0-windows/TemplateFormOP10.xlsx
@@ -241,9 +241,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -558,7 +559,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -829,6 +830,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1067,7 +1072,7 @@
   <dimension ref="A1:BX85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CG68" activeCellId="0" sqref="CG68"/>
+      <selection pane="topLeft" activeCell="BT55" activeCellId="0" sqref="BT55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3472,84 +3477,117 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="68"/>
+      <c r="X38" s="68" t="n">
+        <f aca="false">SUM(X27:AA37)</f>
+        <v>0</v>
+      </c>
       <c r="Y38" s="68"/>
       <c r="Z38" s="68"/>
       <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
+      <c r="AB38" s="68" t="n">
+        <f aca="false">SUM(AB27:AF37)</f>
+        <v>0</v>
+      </c>
       <c r="AC38" s="68"/>
       <c r="AD38" s="68"/>
       <c r="AE38" s="68"/>
       <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
+      <c r="AG38" s="68" t="n">
+        <f aca="false">SUM(AG27:AJ37)</f>
+        <v>0</v>
+      </c>
       <c r="AH38" s="68"/>
       <c r="AI38" s="68"/>
       <c r="AJ38" s="68"/>
-      <c r="AK38" s="68"/>
+      <c r="AK38" s="68" t="n">
+        <f aca="false">SUM(AK27:AO37)</f>
+        <v>0</v>
+      </c>
       <c r="AL38" s="68"/>
       <c r="AM38" s="68"/>
       <c r="AN38" s="68"/>
       <c r="AO38" s="68"/>
-      <c r="AP38" s="68"/>
+      <c r="AP38" s="68" t="n">
+        <f aca="false">SUM(AP27:AS37)</f>
+        <v>0</v>
+      </c>
       <c r="AQ38" s="68"/>
       <c r="AR38" s="68"/>
       <c r="AS38" s="68"/>
-      <c r="AT38" s="68"/>
+      <c r="AT38" s="68" t="n">
+        <f aca="false">SUM(AT27:AX37)</f>
+        <v>0</v>
+      </c>
       <c r="AU38" s="68"/>
       <c r="AV38" s="68"/>
       <c r="AW38" s="68"/>
       <c r="AX38" s="68"/>
-      <c r="AY38" s="68"/>
+      <c r="AY38" s="68" t="n">
+        <f aca="false">SUM(AY27:BB37)</f>
+        <v>0</v>
+      </c>
       <c r="AZ38" s="68"/>
       <c r="BA38" s="68"/>
       <c r="BB38" s="68"/>
-      <c r="BC38" s="68"/>
+      <c r="BC38" s="68" t="n">
+        <f aca="false">SUM(BC27:BF37)</f>
+        <v>0</v>
+      </c>
       <c r="BD38" s="68"/>
       <c r="BE38" s="68"/>
       <c r="BF38" s="68"/>
-      <c r="BG38" s="68"/>
+      <c r="BG38" s="68" t="n">
+        <f aca="false">SUM(BG27:BJ37)</f>
+        <v>0</v>
+      </c>
       <c r="BH38" s="68"/>
       <c r="BI38" s="68"/>
       <c r="BJ38" s="68"/>
-      <c r="BK38" s="68"/>
+      <c r="BK38" s="68" t="n">
+        <f aca="false">SUM(BK27:BN37)</f>
+        <v>0</v>
+      </c>
       <c r="BL38" s="68"/>
       <c r="BM38" s="68"/>
       <c r="BN38" s="68"/>
-      <c r="BO38" s="68" t="s">
+      <c r="BO38" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="BP38" s="68"/>
-      <c r="BQ38" s="68"/>
-      <c r="BR38" s="68"/>
-      <c r="BS38" s="68"/>
-      <c r="BT38" s="68"/>
+      <c r="BP38" s="69"/>
+      <c r="BQ38" s="69"/>
+      <c r="BR38" s="69"/>
+      <c r="BS38" s="69"/>
+      <c r="BT38" s="68" t="n">
+        <f aca="false">SUM(BT27:BX37)</f>
+        <v>0</v>
+      </c>
       <c r="BU38" s="68"/>
       <c r="BV38" s="68"/>
       <c r="BW38" s="68"/>
       <c r="BX38" s="68"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BD39" s="69"/>
-      <c r="BE39" s="69"/>
-      <c r="BF39" s="69"/>
-      <c r="BG39" s="69"/>
-      <c r="BH39" s="69"/>
-      <c r="BI39" s="69"/>
-      <c r="BJ39" s="69"/>
-      <c r="BK39" s="69"/>
-      <c r="BL39" s="69"/>
-      <c r="BM39" s="69"/>
-      <c r="BN39" s="69"/>
-      <c r="BO39" s="69"/>
-      <c r="BP39" s="69"/>
-      <c r="BQ39" s="69"/>
-      <c r="BR39" s="69"/>
-      <c r="BS39" s="69"/>
-      <c r="BT39" s="69"/>
-      <c r="BU39" s="69"/>
-      <c r="BV39" s="69"/>
-      <c r="BW39" s="69"/>
-      <c r="BX39" s="69"/>
+      <c r="BD39" s="70"/>
+      <c r="BE39" s="70"/>
+      <c r="BF39" s="70"/>
+      <c r="BG39" s="70"/>
+      <c r="BH39" s="70"/>
+      <c r="BI39" s="70"/>
+      <c r="BJ39" s="70"/>
+      <c r="BK39" s="70"/>
+      <c r="BL39" s="70"/>
+      <c r="BM39" s="70"/>
+      <c r="BN39" s="70"/>
+      <c r="BO39" s="70"/>
+      <c r="BP39" s="70"/>
+      <c r="BQ39" s="70"/>
+      <c r="BR39" s="70"/>
+      <c r="BS39" s="70"/>
+      <c r="BT39" s="70"/>
+      <c r="BU39" s="70"/>
+      <c r="BV39" s="70"/>
+      <c r="BW39" s="70"/>
+      <c r="BX39" s="70"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="41" t="s">
@@ -4747,46 +4785,76 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
-      <c r="X54" s="68"/>
+      <c r="X54" s="68" t="n">
+        <f aca="false">SUM(X47:AA53)</f>
+        <v>0</v>
+      </c>
       <c r="Y54" s="68"/>
       <c r="Z54" s="68"/>
       <c r="AA54" s="68"/>
-      <c r="AB54" s="68"/>
+      <c r="AB54" s="68" t="n">
+        <f aca="false">SUM(AB47:AF53)</f>
+        <v>0</v>
+      </c>
       <c r="AC54" s="68"/>
       <c r="AD54" s="68"/>
       <c r="AE54" s="68"/>
       <c r="AF54" s="68"/>
-      <c r="AG54" s="68"/>
+      <c r="AG54" s="68" t="n">
+        <f aca="false">SUM(AG47:AJ53)</f>
+        <v>0</v>
+      </c>
       <c r="AH54" s="68"/>
       <c r="AI54" s="68"/>
       <c r="AJ54" s="68"/>
-      <c r="AK54" s="68"/>
+      <c r="AK54" s="68" t="n">
+        <f aca="false">SUM(AK47:AO53)</f>
+        <v>0</v>
+      </c>
       <c r="AL54" s="68"/>
       <c r="AM54" s="68"/>
       <c r="AN54" s="68"/>
       <c r="AO54" s="68"/>
-      <c r="AP54" s="68"/>
+      <c r="AP54" s="68" t="n">
+        <f aca="false">SUM(AP47:AS53)</f>
+        <v>0</v>
+      </c>
       <c r="AQ54" s="68"/>
       <c r="AR54" s="68"/>
       <c r="AS54" s="68"/>
-      <c r="AT54" s="68"/>
+      <c r="AT54" s="68" t="n">
+        <f aca="false">SUM(AT47:AX53)</f>
+        <v>0</v>
+      </c>
       <c r="AU54" s="68"/>
       <c r="AV54" s="68"/>
       <c r="AW54" s="68"/>
       <c r="AX54" s="68"/>
-      <c r="AY54" s="68"/>
+      <c r="AY54" s="68" t="n">
+        <f aca="false">SUM(AY47:BB53)</f>
+        <v>0</v>
+      </c>
       <c r="AZ54" s="68"/>
       <c r="BA54" s="68"/>
       <c r="BB54" s="68"/>
-      <c r="BC54" s="68"/>
+      <c r="BC54" s="68" t="n">
+        <f aca="false">SUM(BC47:BF53)</f>
+        <v>0</v>
+      </c>
       <c r="BD54" s="68"/>
       <c r="BE54" s="68"/>
       <c r="BF54" s="68"/>
-      <c r="BG54" s="68"/>
+      <c r="BG54" s="68" t="n">
+        <f aca="false">SUM(BG47:BJ53)</f>
+        <v>0</v>
+      </c>
       <c r="BH54" s="68"/>
       <c r="BI54" s="68"/>
       <c r="BJ54" s="68"/>
-      <c r="BK54" s="68"/>
+      <c r="BK54" s="68" t="n">
+        <f aca="false">SUM(BK47:BN53)</f>
+        <v>0</v>
+      </c>
       <c r="BL54" s="68"/>
       <c r="BM54" s="68"/>
       <c r="BN54" s="68"/>
@@ -4797,7 +4865,10 @@
       <c r="BQ54" s="68"/>
       <c r="BR54" s="68"/>
       <c r="BS54" s="68"/>
-      <c r="BT54" s="68"/>
+      <c r="BT54" s="68" t="n">
+        <f aca="false">SUM(BT47:BX53)</f>
+        <v>0</v>
+      </c>
       <c r="BU54" s="68"/>
       <c r="BV54" s="68"/>
       <c r="BW54" s="68"/>
@@ -4829,46 +4900,76 @@
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
-      <c r="X55" s="68"/>
+      <c r="X55" s="68" t="n">
+        <f aca="false">SUM(X38,X54)</f>
+        <v>0</v>
+      </c>
       <c r="Y55" s="68"/>
       <c r="Z55" s="68"/>
       <c r="AA55" s="68"/>
-      <c r="AB55" s="68"/>
+      <c r="AB55" s="68" t="n">
+        <f aca="false">SUM(AB38,AB54)</f>
+        <v>0</v>
+      </c>
       <c r="AC55" s="68"/>
       <c r="AD55" s="68"/>
       <c r="AE55" s="68"/>
       <c r="AF55" s="68"/>
-      <c r="AG55" s="68"/>
+      <c r="AG55" s="68" t="n">
+        <f aca="false">SUM(AG38,AG54)</f>
+        <v>0</v>
+      </c>
       <c r="AH55" s="68"/>
       <c r="AI55" s="68"/>
       <c r="AJ55" s="68"/>
-      <c r="AK55" s="68"/>
+      <c r="AK55" s="68" t="n">
+        <f aca="false">SUM(AK38,AK54)</f>
+        <v>0</v>
+      </c>
       <c r="AL55" s="68"/>
       <c r="AM55" s="68"/>
       <c r="AN55" s="68"/>
       <c r="AO55" s="68"/>
-      <c r="AP55" s="68"/>
+      <c r="AP55" s="68" t="n">
+        <f aca="false">SUM(AP38,AP54)</f>
+        <v>0</v>
+      </c>
       <c r="AQ55" s="68"/>
       <c r="AR55" s="68"/>
       <c r="AS55" s="68"/>
-      <c r="AT55" s="68"/>
+      <c r="AT55" s="68" t="n">
+        <f aca="false">SUM(AT54,AT38)</f>
+        <v>0</v>
+      </c>
       <c r="AU55" s="68"/>
       <c r="AV55" s="68"/>
       <c r="AW55" s="68"/>
       <c r="AX55" s="68"/>
-      <c r="AY55" s="68"/>
+      <c r="AY55" s="68" t="n">
+        <f aca="false">SUM(AY38,AY54)</f>
+        <v>0</v>
+      </c>
       <c r="AZ55" s="68"/>
       <c r="BA55" s="68"/>
       <c r="BB55" s="68"/>
-      <c r="BC55" s="68"/>
+      <c r="BC55" s="68" t="n">
+        <f aca="false">SUM(BC38,BC54)</f>
+        <v>0</v>
+      </c>
       <c r="BD55" s="68"/>
       <c r="BE55" s="68"/>
       <c r="BF55" s="68"/>
-      <c r="BG55" s="68"/>
+      <c r="BG55" s="68" t="n">
+        <f aca="false">SUM(BG38,BG54)</f>
+        <v>0</v>
+      </c>
       <c r="BH55" s="68"/>
       <c r="BI55" s="68"/>
       <c r="BJ55" s="68"/>
-      <c r="BK55" s="68"/>
+      <c r="BK55" s="68" t="n">
+        <f aca="false">SUM(BK38,BK54)</f>
+        <v>0</v>
+      </c>
       <c r="BL55" s="68"/>
       <c r="BM55" s="68"/>
       <c r="BN55" s="68"/>
@@ -4879,7 +4980,10 @@
       <c r="BQ55" s="68"/>
       <c r="BR55" s="68"/>
       <c r="BS55" s="68"/>
-      <c r="BT55" s="68"/>
+      <c r="BT55" s="68" t="n">
+        <f aca="false">SUM(BT38,BT54)</f>
+        <v>0</v>
+      </c>
       <c r="BU55" s="68"/>
       <c r="BV55" s="68"/>
       <c r="BW55" s="68"/>
@@ -4889,104 +4993,104 @@
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD56" s="70"/>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="70"/>
-      <c r="AH56" s="70"/>
-      <c r="AI56" s="70"/>
-      <c r="AJ56" s="70"/>
-      <c r="AK56" s="70"/>
-      <c r="AL56" s="70"/>
-      <c r="AM56" s="70"/>
-      <c r="AN56" s="70"/>
-      <c r="AO56" s="70"/>
-      <c r="AP56" s="70"/>
-      <c r="AQ56" s="70"/>
-      <c r="AR56" s="70"/>
-      <c r="AS56" s="70"/>
-      <c r="AT56" s="70"/>
-      <c r="AU56" s="70"/>
-      <c r="AV56" s="70"/>
-      <c r="AW56" s="70"/>
-      <c r="AX56" s="70"/>
-      <c r="AY56" s="70"/>
-      <c r="AZ56" s="70"/>
-      <c r="BA56" s="70"/>
-      <c r="BB56" s="70"/>
-      <c r="BC56" s="70"/>
-      <c r="BD56" s="70"/>
-      <c r="BE56" s="70"/>
-      <c r="BF56" s="70"/>
-      <c r="BG56" s="70"/>
-      <c r="BH56" s="70"/>
-      <c r="BI56" s="70"/>
-      <c r="BJ56" s="70"/>
-      <c r="BK56" s="70"/>
-      <c r="BL56" s="70"/>
-      <c r="BM56" s="70"/>
-      <c r="BN56" s="70"/>
-      <c r="BO56" s="70"/>
-      <c r="BP56" s="70"/>
-      <c r="BQ56" s="70"/>
-      <c r="BR56" s="70"/>
-      <c r="BS56" s="70"/>
-      <c r="BT56" s="70"/>
-      <c r="BU56" s="70"/>
-      <c r="BV56" s="70"/>
-      <c r="BW56" s="70"/>
-      <c r="BX56" s="70"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="71"/>
+      <c r="AH56" s="71"/>
+      <c r="AI56" s="71"/>
+      <c r="AJ56" s="71"/>
+      <c r="AK56" s="71"/>
+      <c r="AL56" s="71"/>
+      <c r="AM56" s="71"/>
+      <c r="AN56" s="71"/>
+      <c r="AO56" s="71"/>
+      <c r="AP56" s="71"/>
+      <c r="AQ56" s="71"/>
+      <c r="AR56" s="71"/>
+      <c r="AS56" s="71"/>
+      <c r="AT56" s="71"/>
+      <c r="AU56" s="71"/>
+      <c r="AV56" s="71"/>
+      <c r="AW56" s="71"/>
+      <c r="AX56" s="71"/>
+      <c r="AY56" s="71"/>
+      <c r="AZ56" s="71"/>
+      <c r="BA56" s="71"/>
+      <c r="BB56" s="71"/>
+      <c r="BC56" s="71"/>
+      <c r="BD56" s="71"/>
+      <c r="BE56" s="71"/>
+      <c r="BF56" s="71"/>
+      <c r="BG56" s="71"/>
+      <c r="BH56" s="71"/>
+      <c r="BI56" s="71"/>
+      <c r="BJ56" s="71"/>
+      <c r="BK56" s="71"/>
+      <c r="BL56" s="71"/>
+      <c r="BM56" s="71"/>
+      <c r="BN56" s="71"/>
+      <c r="BO56" s="71"/>
+      <c r="BP56" s="71"/>
+      <c r="BQ56" s="71"/>
+      <c r="BR56" s="71"/>
+      <c r="BS56" s="71"/>
+      <c r="BT56" s="71"/>
+      <c r="BU56" s="71"/>
+      <c r="BV56" s="71"/>
+      <c r="BW56" s="71"/>
+      <c r="BX56" s="71"/>
     </row>
     <row r="57" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AD57" s="71" t="s">
+      <c r="AD57" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AE57" s="71"/>
-      <c r="AF57" s="71"/>
-      <c r="AG57" s="71"/>
-      <c r="AH57" s="71"/>
-      <c r="AI57" s="71"/>
-      <c r="AJ57" s="71"/>
-      <c r="AK57" s="71"/>
-      <c r="AL57" s="71"/>
-      <c r="AM57" s="71"/>
-      <c r="AN57" s="71"/>
-      <c r="AO57" s="71"/>
-      <c r="AP57" s="71"/>
-      <c r="AQ57" s="71"/>
-      <c r="AR57" s="71"/>
-      <c r="AS57" s="71"/>
-      <c r="AT57" s="71"/>
-      <c r="AU57" s="71"/>
-      <c r="AV57" s="71"/>
-      <c r="AW57" s="71"/>
-      <c r="AX57" s="71"/>
-      <c r="AY57" s="71"/>
-      <c r="AZ57" s="71"/>
-      <c r="BA57" s="71"/>
-      <c r="BB57" s="71"/>
-      <c r="BC57" s="71"/>
-      <c r="BD57" s="71"/>
-      <c r="BE57" s="71"/>
-      <c r="BF57" s="71"/>
-      <c r="BG57" s="71"/>
-      <c r="BH57" s="71"/>
-      <c r="BI57" s="71"/>
-      <c r="BJ57" s="71"/>
-      <c r="BK57" s="71"/>
-      <c r="BL57" s="71"/>
-      <c r="BM57" s="71"/>
-      <c r="BN57" s="71"/>
-      <c r="BO57" s="71"/>
-      <c r="BP57" s="71"/>
-      <c r="BQ57" s="71"/>
-      <c r="BR57" s="71"/>
-      <c r="BS57" s="71"/>
-      <c r="BT57" s="71"/>
-      <c r="BU57" s="71"/>
-      <c r="BV57" s="71"/>
-      <c r="BW57" s="71"/>
-      <c r="BX57" s="71"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="72"/>
+      <c r="AG57" s="72"/>
+      <c r="AH57" s="72"/>
+      <c r="AI57" s="72"/>
+      <c r="AJ57" s="72"/>
+      <c r="AK57" s="72"/>
+      <c r="AL57" s="72"/>
+      <c r="AM57" s="72"/>
+      <c r="AN57" s="72"/>
+      <c r="AO57" s="72"/>
+      <c r="AP57" s="72"/>
+      <c r="AQ57" s="72"/>
+      <c r="AR57" s="72"/>
+      <c r="AS57" s="72"/>
+      <c r="AT57" s="72"/>
+      <c r="AU57" s="72"/>
+      <c r="AV57" s="72"/>
+      <c r="AW57" s="72"/>
+      <c r="AX57" s="72"/>
+      <c r="AY57" s="72"/>
+      <c r="AZ57" s="72"/>
+      <c r="BA57" s="72"/>
+      <c r="BB57" s="72"/>
+      <c r="BC57" s="72"/>
+      <c r="BD57" s="72"/>
+      <c r="BE57" s="72"/>
+      <c r="BF57" s="72"/>
+      <c r="BG57" s="72"/>
+      <c r="BH57" s="72"/>
+      <c r="BI57" s="72"/>
+      <c r="BJ57" s="72"/>
+      <c r="BK57" s="72"/>
+      <c r="BL57" s="72"/>
+      <c r="BM57" s="72"/>
+      <c r="BN57" s="72"/>
+      <c r="BO57" s="72"/>
+      <c r="BP57" s="72"/>
+      <c r="BQ57" s="72"/>
+      <c r="BR57" s="72"/>
+      <c r="BS57" s="72"/>
+      <c r="BT57" s="72"/>
+      <c r="BU57" s="72"/>
+      <c r="BV57" s="72"/>
+      <c r="BW57" s="72"/>
+      <c r="BX57" s="72"/>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
@@ -5053,25 +5157,25 @@
       <c r="BJ58" s="8"/>
       <c r="BK58" s="8"/>
       <c r="BL58" s="8"/>
-      <c r="BM58" s="72" t="s">
+      <c r="BM58" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="BN58" s="72"/>
-      <c r="BO58" s="72"/>
+      <c r="BN58" s="73"/>
+      <c r="BO58" s="73"/>
       <c r="BP58" s="8"/>
       <c r="BQ58" s="8"/>
       <c r="BR58" s="8"/>
       <c r="BS58" s="8"/>
       <c r="BT58" s="8"/>
-      <c r="BU58" s="72" t="s">
+      <c r="BU58" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="BV58" s="72"/>
-      <c r="BW58" s="72"/>
+      <c r="BV58" s="73"/>
+      <c r="BW58" s="73"/>
       <c r="BX58" s="50"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="74" t="s">
         <v>46</v>
       </c>
       <c r="S59" s="18"/>
@@ -5086,94 +5190,94 @@
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18"/>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AG59" s="70"/>
-      <c r="AH59" s="70"/>
-      <c r="AI59" s="70"/>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="70"/>
-      <c r="AM59" s="70"/>
-      <c r="AN59" s="70"/>
-      <c r="AO59" s="70"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="70"/>
-      <c r="AR59" s="70"/>
-      <c r="AS59" s="70"/>
-      <c r="AT59" s="70"/>
-      <c r="AU59" s="70"/>
-      <c r="AV59" s="70"/>
-      <c r="AW59" s="70"/>
-      <c r="AX59" s="70"/>
-      <c r="AY59" s="70"/>
-      <c r="AZ59" s="70"/>
-      <c r="BA59" s="70"/>
-      <c r="BB59" s="70"/>
-      <c r="BC59" s="70"/>
-      <c r="BD59" s="70"/>
-      <c r="BE59" s="70"/>
-      <c r="BF59" s="70"/>
-      <c r="BG59" s="70"/>
-      <c r="BH59" s="70"/>
-      <c r="BI59" s="70"/>
-      <c r="BJ59" s="70"/>
-      <c r="BK59" s="70"/>
-      <c r="BL59" s="70"/>
-      <c r="BM59" s="72" t="s">
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
+      <c r="AH59" s="71"/>
+      <c r="AI59" s="71"/>
+      <c r="AJ59" s="71"/>
+      <c r="AK59" s="71"/>
+      <c r="AL59" s="71"/>
+      <c r="AM59" s="71"/>
+      <c r="AN59" s="71"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="71"/>
+      <c r="AT59" s="71"/>
+      <c r="AU59" s="71"/>
+      <c r="AV59" s="71"/>
+      <c r="AW59" s="71"/>
+      <c r="AX59" s="71"/>
+      <c r="AY59" s="71"/>
+      <c r="AZ59" s="71"/>
+      <c r="BA59" s="71"/>
+      <c r="BB59" s="71"/>
+      <c r="BC59" s="71"/>
+      <c r="BD59" s="71"/>
+      <c r="BE59" s="71"/>
+      <c r="BF59" s="71"/>
+      <c r="BG59" s="71"/>
+      <c r="BH59" s="71"/>
+      <c r="BI59" s="71"/>
+      <c r="BJ59" s="71"/>
+      <c r="BK59" s="71"/>
+      <c r="BL59" s="71"/>
+      <c r="BM59" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="BN59" s="72"/>
-      <c r="BO59" s="72"/>
+      <c r="BN59" s="73"/>
+      <c r="BO59" s="73"/>
       <c r="BP59" s="8"/>
       <c r="BQ59" s="8"/>
       <c r="BR59" s="8"/>
       <c r="BS59" s="8"/>
       <c r="BT59" s="8"/>
-      <c r="BU59" s="72" t="s">
+      <c r="BU59" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="BV59" s="72"/>
-      <c r="BW59" s="72"/>
+      <c r="BV59" s="73"/>
+      <c r="BW59" s="73"/>
       <c r="BX59" s="50"/>
     </row>
     <row r="60" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AE60" s="71" t="s">
+      <c r="AE60" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AF60" s="71"/>
-      <c r="AG60" s="71"/>
-      <c r="AH60" s="71"/>
-      <c r="AI60" s="71"/>
-      <c r="AJ60" s="71"/>
-      <c r="AK60" s="71"/>
-      <c r="AL60" s="71"/>
-      <c r="AM60" s="71"/>
-      <c r="AN60" s="71"/>
-      <c r="AO60" s="71"/>
-      <c r="AP60" s="71"/>
-      <c r="AQ60" s="71"/>
-      <c r="AR60" s="71"/>
-      <c r="AS60" s="71"/>
-      <c r="AT60" s="71"/>
-      <c r="AU60" s="71"/>
-      <c r="AV60" s="71"/>
-      <c r="AW60" s="71"/>
-      <c r="AX60" s="71"/>
-      <c r="AY60" s="71"/>
-      <c r="AZ60" s="71"/>
-      <c r="BA60" s="71"/>
-      <c r="BB60" s="71"/>
-      <c r="BC60" s="71"/>
-      <c r="BD60" s="71"/>
-      <c r="BE60" s="71"/>
-      <c r="BF60" s="71"/>
-      <c r="BG60" s="71"/>
-      <c r="BH60" s="71"/>
-      <c r="BI60" s="71"/>
-      <c r="BJ60" s="71"/>
-      <c r="BK60" s="71"/>
-      <c r="BL60" s="71"/>
+      <c r="AF60" s="72"/>
+      <c r="AG60" s="72"/>
+      <c r="AH60" s="72"/>
+      <c r="AI60" s="72"/>
+      <c r="AJ60" s="72"/>
+      <c r="AK60" s="72"/>
+      <c r="AL60" s="72"/>
+      <c r="AM60" s="72"/>
+      <c r="AN60" s="72"/>
+      <c r="AO60" s="72"/>
+      <c r="AP60" s="72"/>
+      <c r="AQ60" s="72"/>
+      <c r="AR60" s="72"/>
+      <c r="AS60" s="72"/>
+      <c r="AT60" s="72"/>
+      <c r="AU60" s="72"/>
+      <c r="AV60" s="72"/>
+      <c r="AW60" s="72"/>
+      <c r="AX60" s="72"/>
+      <c r="AY60" s="72"/>
+      <c r="AZ60" s="72"/>
+      <c r="BA60" s="72"/>
+      <c r="BB60" s="72"/>
+      <c r="BC60" s="72"/>
+      <c r="BD60" s="72"/>
+      <c r="BE60" s="72"/>
+      <c r="BF60" s="72"/>
+      <c r="BG60" s="72"/>
+      <c r="BH60" s="72"/>
+      <c r="BI60" s="72"/>
+      <c r="BJ60" s="72"/>
+      <c r="BK60" s="72"/>
+      <c r="BL60" s="72"/>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -5235,29 +5339,29 @@
       <c r="BX62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AK63" s="71" t="s">
+      <c r="AK63" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AL63" s="71"/>
-      <c r="AM63" s="71"/>
-      <c r="AN63" s="71"/>
-      <c r="AO63" s="71"/>
-      <c r="AP63" s="71"/>
-      <c r="AQ63" s="71"/>
-      <c r="AR63" s="71"/>
-      <c r="AS63" s="71"/>
-      <c r="AT63" s="71"/>
-      <c r="AU63" s="71"/>
-      <c r="AV63" s="71"/>
-      <c r="AW63" s="71"/>
-      <c r="AX63" s="71"/>
-      <c r="AY63" s="71"/>
-      <c r="AZ63" s="74"/>
-      <c r="BA63" s="74"/>
-      <c r="BB63" s="74"/>
-      <c r="BC63" s="74"/>
-      <c r="BD63" s="74"/>
-      <c r="BE63" s="74"/>
+      <c r="AL63" s="72"/>
+      <c r="AM63" s="72"/>
+      <c r="AN63" s="72"/>
+      <c r="AO63" s="72"/>
+      <c r="AP63" s="72"/>
+      <c r="AQ63" s="72"/>
+      <c r="AR63" s="72"/>
+      <c r="AS63" s="72"/>
+      <c r="AT63" s="72"/>
+      <c r="AU63" s="72"/>
+      <c r="AV63" s="72"/>
+      <c r="AW63" s="72"/>
+      <c r="AX63" s="72"/>
+      <c r="AY63" s="72"/>
+      <c r="AZ63" s="75"/>
+      <c r="BA63" s="75"/>
+      <c r="BB63" s="75"/>
+      <c r="BC63" s="75"/>
+      <c r="BD63" s="75"/>
+      <c r="BE63" s="75"/>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -5346,29 +5450,29 @@
       <c r="BX64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AK65" s="71" t="s">
+      <c r="AK65" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AL65" s="71"/>
-      <c r="AM65" s="71"/>
-      <c r="AN65" s="71"/>
-      <c r="AO65" s="71"/>
-      <c r="AP65" s="71"/>
-      <c r="AQ65" s="71"/>
-      <c r="AR65" s="71"/>
-      <c r="AS65" s="71"/>
-      <c r="AT65" s="71"/>
-      <c r="AU65" s="71"/>
-      <c r="AV65" s="71"/>
-      <c r="AW65" s="71"/>
-      <c r="AX65" s="71"/>
-      <c r="AY65" s="71"/>
-      <c r="AZ65" s="74"/>
-      <c r="BA65" s="74"/>
-      <c r="BB65" s="74"/>
-      <c r="BC65" s="74"/>
-      <c r="BD65" s="74"/>
-      <c r="BE65" s="74"/>
+      <c r="AL65" s="72"/>
+      <c r="AM65" s="72"/>
+      <c r="AN65" s="72"/>
+      <c r="AO65" s="72"/>
+      <c r="AP65" s="72"/>
+      <c r="AQ65" s="72"/>
+      <c r="AR65" s="72"/>
+      <c r="AS65" s="72"/>
+      <c r="AT65" s="72"/>
+      <c r="AU65" s="72"/>
+      <c r="AV65" s="72"/>
+      <c r="AW65" s="72"/>
+      <c r="AX65" s="72"/>
+      <c r="AY65" s="72"/>
+      <c r="AZ65" s="75"/>
+      <c r="BA65" s="75"/>
+      <c r="BB65" s="75"/>
+      <c r="BC65" s="75"/>
+      <c r="BD65" s="75"/>
+      <c r="BE65" s="75"/>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
@@ -5454,29 +5558,29 @@
       <c r="BX66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AK67" s="71" t="s">
+      <c r="AK67" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AL67" s="71"/>
-      <c r="AM67" s="71"/>
-      <c r="AN67" s="71"/>
-      <c r="AO67" s="71"/>
-      <c r="AP67" s="71"/>
-      <c r="AQ67" s="71"/>
-      <c r="AR67" s="71"/>
-      <c r="AS67" s="71"/>
-      <c r="AT67" s="71"/>
-      <c r="AU67" s="71"/>
-      <c r="AV67" s="71"/>
-      <c r="AW67" s="71"/>
-      <c r="AX67" s="71"/>
-      <c r="AY67" s="71"/>
-      <c r="AZ67" s="74"/>
-      <c r="BA67" s="74"/>
-      <c r="BB67" s="74"/>
-      <c r="BC67" s="74"/>
-      <c r="BD67" s="74"/>
-      <c r="BE67" s="74"/>
+      <c r="AL67" s="72"/>
+      <c r="AM67" s="72"/>
+      <c r="AN67" s="72"/>
+      <c r="AO67" s="72"/>
+      <c r="AP67" s="72"/>
+      <c r="AQ67" s="72"/>
+      <c r="AR67" s="72"/>
+      <c r="AS67" s="72"/>
+      <c r="AT67" s="72"/>
+      <c r="AU67" s="72"/>
+      <c r="AV67" s="72"/>
+      <c r="AW67" s="72"/>
+      <c r="AX67" s="72"/>
+      <c r="AY67" s="72"/>
+      <c r="AZ67" s="75"/>
+      <c r="BA67" s="75"/>
+      <c r="BB67" s="75"/>
+      <c r="BC67" s="75"/>
+      <c r="BD67" s="75"/>
+      <c r="BE67" s="75"/>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
@@ -5524,45 +5628,45 @@
       <c r="AW69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O70" s="71" t="s">
+      <c r="O70" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="75"/>
-      <c r="X70" s="71" t="s">
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+      <c r="W70" s="76"/>
+      <c r="X70" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Y70" s="71"/>
-      <c r="Z70" s="71"/>
-      <c r="AA70" s="71"/>
-      <c r="AB70" s="71"/>
-      <c r="AC70" s="71"/>
-      <c r="AD70" s="71"/>
-      <c r="AE70" s="71"/>
-      <c r="AF70" s="71"/>
-      <c r="AG70" s="71"/>
-      <c r="AH70" s="71"/>
-      <c r="AI70" s="71"/>
-      <c r="AJ70" s="71"/>
-      <c r="AK70" s="71"/>
-      <c r="AL70" s="71"/>
-      <c r="AM70" s="71"/>
-      <c r="AN70" s="71"/>
-      <c r="AO70" s="71"/>
-      <c r="AP70" s="71"/>
-      <c r="AQ70" s="71"/>
-      <c r="AR70" s="71"/>
-      <c r="AS70" s="74"/>
-      <c r="AT70" s="74"/>
-      <c r="AU70" s="74"/>
-      <c r="AV70" s="74"/>
-      <c r="AW70" s="74"/>
+      <c r="Y70" s="72"/>
+      <c r="Z70" s="72"/>
+      <c r="AA70" s="72"/>
+      <c r="AB70" s="72"/>
+      <c r="AC70" s="72"/>
+      <c r="AD70" s="72"/>
+      <c r="AE70" s="72"/>
+      <c r="AF70" s="72"/>
+      <c r="AG70" s="72"/>
+      <c r="AH70" s="72"/>
+      <c r="AI70" s="72"/>
+      <c r="AJ70" s="72"/>
+      <c r="AK70" s="72"/>
+      <c r="AL70" s="72"/>
+      <c r="AM70" s="72"/>
+      <c r="AN70" s="72"/>
+      <c r="AO70" s="72"/>
+      <c r="AP70" s="72"/>
+      <c r="AQ70" s="72"/>
+      <c r="AR70" s="72"/>
+      <c r="AS70" s="75"/>
+      <c r="AT70" s="75"/>
+      <c r="AU70" s="75"/>
+      <c r="AV70" s="75"/>
+      <c r="AW70" s="75"/>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -5611,52 +5715,52 @@
       <c r="AW71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H72" s="71" t="s">
+      <c r="H72" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="75"/>
-      <c r="U72" s="71" t="s">
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="76"/>
+      <c r="U72" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="71"/>
-      <c r="AC72" s="71"/>
-      <c r="AD72" s="71"/>
-      <c r="AE72" s="71"/>
-      <c r="AF72" s="71"/>
-      <c r="AG72" s="71"/>
-      <c r="AH72" s="71"/>
-      <c r="AI72" s="71"/>
-      <c r="AJ72" s="71"/>
-      <c r="AK72" s="71"/>
-      <c r="AL72" s="71"/>
-      <c r="AM72" s="71"/>
-      <c r="AN72" s="71"/>
-      <c r="AO72" s="71"/>
-      <c r="AP72" s="71"/>
-      <c r="AQ72" s="71"/>
-      <c r="AR72" s="71"/>
-      <c r="AS72" s="74"/>
-      <c r="AT72" s="74"/>
-      <c r="AU72" s="74"/>
-      <c r="AV72" s="74"/>
-      <c r="AW72" s="74"/>
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="72"/>
+      <c r="Y72" s="72"/>
+      <c r="Z72" s="72"/>
+      <c r="AA72" s="72"/>
+      <c r="AB72" s="72"/>
+      <c r="AC72" s="72"/>
+      <c r="AD72" s="72"/>
+      <c r="AE72" s="72"/>
+      <c r="AF72" s="72"/>
+      <c r="AG72" s="72"/>
+      <c r="AH72" s="72"/>
+      <c r="AI72" s="72"/>
+      <c r="AJ72" s="72"/>
+      <c r="AK72" s="72"/>
+      <c r="AL72" s="72"/>
+      <c r="AM72" s="72"/>
+      <c r="AN72" s="72"/>
+      <c r="AO72" s="72"/>
+      <c r="AP72" s="72"/>
+      <c r="AQ72" s="72"/>
+      <c r="AR72" s="72"/>
+      <c r="AS72" s="75"/>
+      <c r="AT72" s="75"/>
+      <c r="AU72" s="75"/>
+      <c r="AV72" s="75"/>
+      <c r="AW72" s="75"/>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="8"/>
@@ -5669,7 +5773,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="72"/>
+      <c r="K73" s="73"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -5678,7 +5782,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
-      <c r="T73" s="72"/>
+      <c r="T73" s="73"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
@@ -5710,60 +5814,60 @@
       <c r="AW73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="71" t="s">
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="U74" s="71" t="s">
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="U74" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="71"/>
-      <c r="AD74" s="71"/>
-      <c r="AE74" s="71"/>
-      <c r="AF74" s="71"/>
-      <c r="AG74" s="71"/>
-      <c r="AH74" s="71"/>
-      <c r="AI74" s="71"/>
-      <c r="AJ74" s="71"/>
-      <c r="AK74" s="71"/>
-      <c r="AL74" s="71"/>
-      <c r="AM74" s="71"/>
-      <c r="AN74" s="71"/>
-      <c r="AO74" s="71"/>
-      <c r="AP74" s="71"/>
-      <c r="AQ74" s="71"/>
-      <c r="AR74" s="71"/>
-      <c r="AS74" s="74"/>
-      <c r="AT74" s="74"/>
-      <c r="AU74" s="74"/>
-      <c r="AV74" s="74"/>
-      <c r="AW74" s="74"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="72"/>
+      <c r="Y74" s="72"/>
+      <c r="Z74" s="72"/>
+      <c r="AA74" s="72"/>
+      <c r="AB74" s="72"/>
+      <c r="AC74" s="72"/>
+      <c r="AD74" s="72"/>
+      <c r="AE74" s="72"/>
+      <c r="AF74" s="72"/>
+      <c r="AG74" s="72"/>
+      <c r="AH74" s="72"/>
+      <c r="AI74" s="72"/>
+      <c r="AJ74" s="72"/>
+      <c r="AK74" s="72"/>
+      <c r="AL74" s="72"/>
+      <c r="AM74" s="72"/>
+      <c r="AN74" s="72"/>
+      <c r="AO74" s="72"/>
+      <c r="AP74" s="72"/>
+      <c r="AQ74" s="72"/>
+      <c r="AR74" s="72"/>
+      <c r="AS74" s="75"/>
+      <c r="AT74" s="75"/>
+      <c r="AU74" s="75"/>
+      <c r="AV74" s="75"/>
+      <c r="AW74" s="75"/>
     </row>
     <row r="75" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5828,81 +5932,81 @@
       <c r="BL76" s="8"/>
       <c r="BM76" s="8"/>
       <c r="BN76" s="8"/>
-      <c r="BO76" s="72" t="s">
+      <c r="BO76" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="BP76" s="72"/>
-      <c r="BQ76" s="72"/>
+      <c r="BP76" s="73"/>
+      <c r="BQ76" s="73"/>
       <c r="BR76" s="8"/>
       <c r="BS76" s="8"/>
       <c r="BT76" s="8"/>
       <c r="BU76" s="8"/>
-      <c r="BV76" s="72" t="s">
+      <c r="BV76" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="BW76" s="72"/>
-      <c r="BX76" s="72"/>
+      <c r="BW76" s="73"/>
+      <c r="BX76" s="73"/>
     </row>
     <row r="77" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I77" s="71" t="s">
+      <c r="I77" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="71"/>
-      <c r="W77" s="71"/>
-      <c r="X77" s="71"/>
-      <c r="Y77" s="71"/>
-      <c r="Z77" s="71"/>
-      <c r="AA77" s="71"/>
-      <c r="AB77" s="71"/>
-      <c r="AC77" s="71"/>
-      <c r="AD77" s="71"/>
-      <c r="AE77" s="71"/>
-      <c r="AF77" s="71"/>
-      <c r="AG77" s="71"/>
-      <c r="AH77" s="71"/>
-      <c r="AI77" s="71"/>
-      <c r="AJ77" s="71"/>
-      <c r="AK77" s="71"/>
-      <c r="AL77" s="71"/>
-      <c r="AM77" s="71"/>
-      <c r="AN77" s="71"/>
-      <c r="AO77" s="71"/>
-      <c r="AP77" s="71"/>
-      <c r="AQ77" s="71"/>
-      <c r="AR77" s="71"/>
-      <c r="AS77" s="71"/>
-      <c r="AT77" s="71"/>
-      <c r="AU77" s="71"/>
-      <c r="AV77" s="71"/>
-      <c r="AW77" s="71"/>
-      <c r="AX77" s="71"/>
-      <c r="AY77" s="71"/>
-      <c r="AZ77" s="71"/>
-      <c r="BA77" s="71"/>
-      <c r="BB77" s="71"/>
-      <c r="BC77" s="71"/>
-      <c r="BD77" s="71"/>
-      <c r="BE77" s="71"/>
-      <c r="BF77" s="71"/>
-      <c r="BG77" s="71"/>
-      <c r="BH77" s="71"/>
-      <c r="BI77" s="71"/>
-      <c r="BJ77" s="71"/>
-      <c r="BK77" s="71"/>
-      <c r="BL77" s="71"/>
-      <c r="BM77" s="71"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72"/>
+      <c r="W77" s="72"/>
+      <c r="X77" s="72"/>
+      <c r="Y77" s="72"/>
+      <c r="Z77" s="72"/>
+      <c r="AA77" s="72"/>
+      <c r="AB77" s="72"/>
+      <c r="AC77" s="72"/>
+      <c r="AD77" s="72"/>
+      <c r="AE77" s="72"/>
+      <c r="AF77" s="72"/>
+      <c r="AG77" s="72"/>
+      <c r="AH77" s="72"/>
+      <c r="AI77" s="72"/>
+      <c r="AJ77" s="72"/>
+      <c r="AK77" s="72"/>
+      <c r="AL77" s="72"/>
+      <c r="AM77" s="72"/>
+      <c r="AN77" s="72"/>
+      <c r="AO77" s="72"/>
+      <c r="AP77" s="72"/>
+      <c r="AQ77" s="72"/>
+      <c r="AR77" s="72"/>
+      <c r="AS77" s="72"/>
+      <c r="AT77" s="72"/>
+      <c r="AU77" s="72"/>
+      <c r="AV77" s="72"/>
+      <c r="AW77" s="72"/>
+      <c r="AX77" s="72"/>
+      <c r="AY77" s="72"/>
+      <c r="AZ77" s="72"/>
+      <c r="BA77" s="72"/>
+      <c r="BB77" s="72"/>
+      <c r="BC77" s="72"/>
+      <c r="BD77" s="72"/>
+      <c r="BE77" s="72"/>
+      <c r="BF77" s="72"/>
+      <c r="BG77" s="72"/>
+      <c r="BH77" s="72"/>
+      <c r="BI77" s="72"/>
+      <c r="BJ77" s="72"/>
+      <c r="BK77" s="72"/>
+      <c r="BL77" s="72"/>
+      <c r="BM77" s="72"/>
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
@@ -5943,7 +6047,7 @@
       <c r="BI79" s="29"/>
       <c r="BJ79" s="29"/>
       <c r="BK79" s="29"/>
-      <c r="BL79" s="76"/>
+      <c r="BL79" s="77"/>
       <c r="BM79" s="29" t="s">
         <v>19</v>
       </c>
@@ -5963,37 +6067,37 @@
       <c r="A80" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="77"/>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="77"/>
-      <c r="S80" s="77"/>
-      <c r="T80" s="77"/>
-      <c r="U80" s="77"/>
-      <c r="V80" s="77"/>
-      <c r="W80" s="77"/>
-      <c r="X80" s="77"/>
-      <c r="Y80" s="77"/>
-      <c r="Z80" s="77"/>
-      <c r="AA80" s="77"/>
-      <c r="AB80" s="77"/>
-      <c r="AC80" s="77"/>
-      <c r="AD80" s="77"/>
-      <c r="AE80" s="77"/>
-      <c r="AF80" s="77"/>
-      <c r="AG80" s="77"/>
-      <c r="AH80" s="77"/>
-      <c r="AI80" s="77"/>
-      <c r="AJ80" s="77"/>
-      <c r="AK80" s="77"/>
-      <c r="AL80" s="77"/>
-      <c r="AN80" s="78" t="s">
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="78"/>
+      <c r="S80" s="78"/>
+      <c r="T80" s="78"/>
+      <c r="U80" s="78"/>
+      <c r="V80" s="78"/>
+      <c r="W80" s="78"/>
+      <c r="X80" s="78"/>
+      <c r="Y80" s="78"/>
+      <c r="Z80" s="78"/>
+      <c r="AA80" s="78"/>
+      <c r="AB80" s="78"/>
+      <c r="AC80" s="78"/>
+      <c r="AD80" s="78"/>
+      <c r="AE80" s="78"/>
+      <c r="AF80" s="78"/>
+      <c r="AG80" s="78"/>
+      <c r="AH80" s="78"/>
+      <c r="AI80" s="78"/>
+      <c r="AJ80" s="78"/>
+      <c r="AK80" s="78"/>
+      <c r="AL80" s="78"/>
+      <c r="AN80" s="79" t="s">
         <v>61</v>
       </c>
       <c r="AO80" s="3"/>
@@ -6022,70 +6126,70 @@
       <c r="BL80" s="8"/>
       <c r="BM80" s="8"/>
       <c r="BN80" s="8"/>
-      <c r="BO80" s="72" t="s">
+      <c r="BO80" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="BP80" s="72"/>
-      <c r="BQ80" s="72"/>
+      <c r="BP80" s="73"/>
+      <c r="BQ80" s="73"/>
       <c r="BR80" s="8"/>
       <c r="BS80" s="8"/>
       <c r="BT80" s="8"/>
       <c r="BU80" s="8"/>
-      <c r="BV80" s="72" t="s">
+      <c r="BV80" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="BW80" s="72"/>
-      <c r="BX80" s="72"/>
+      <c r="BW80" s="73"/>
+      <c r="BX80" s="73"/>
     </row>
     <row r="81" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BH81" s="71" t="s">
+      <c r="BH81" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="BI81" s="71"/>
-      <c r="BJ81" s="71"/>
-      <c r="BK81" s="71"/>
-      <c r="BL81" s="71"/>
-      <c r="BM81" s="71"/>
-      <c r="BN81" s="71"/>
+      <c r="BI81" s="72"/>
+      <c r="BJ81" s="72"/>
+      <c r="BK81" s="72"/>
+      <c r="BL81" s="72"/>
+      <c r="BM81" s="72"/>
+      <c r="BN81" s="72"/>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="77"/>
-      <c r="Q82" s="77"/>
-      <c r="R82" s="77"/>
-      <c r="S82" s="77"/>
-      <c r="T82" s="77"/>
-      <c r="U82" s="77"/>
-      <c r="V82" s="77"/>
-      <c r="W82" s="77"/>
-      <c r="X82" s="77"/>
-      <c r="Y82" s="77"/>
-      <c r="Z82" s="77"/>
-      <c r="AA82" s="77"/>
-      <c r="AB82" s="77"/>
-      <c r="AC82" s="77"/>
-      <c r="AD82" s="77"/>
-      <c r="AE82" s="77"/>
-      <c r="AF82" s="77"/>
-      <c r="AG82" s="77"/>
-      <c r="AH82" s="77"/>
-      <c r="AI82" s="77"/>
-      <c r="AJ82" s="77"/>
-      <c r="AK82" s="77"/>
-      <c r="AL82" s="77"/>
-      <c r="AM82" s="77"/>
-      <c r="AN82" s="77"/>
-      <c r="AO82" s="77"/>
-      <c r="AP82" s="77"/>
-      <c r="AQ82" s="77"/>
-      <c r="AR82" s="77"/>
-      <c r="AS82" s="77"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="78"/>
+      <c r="S82" s="78"/>
+      <c r="T82" s="78"/>
+      <c r="U82" s="78"/>
+      <c r="V82" s="78"/>
+      <c r="W82" s="78"/>
+      <c r="X82" s="78"/>
+      <c r="Y82" s="78"/>
+      <c r="Z82" s="78"/>
+      <c r="AA82" s="78"/>
+      <c r="AB82" s="78"/>
+      <c r="AC82" s="78"/>
+      <c r="AD82" s="78"/>
+      <c r="AE82" s="78"/>
+      <c r="AF82" s="78"/>
+      <c r="AG82" s="78"/>
+      <c r="AH82" s="78"/>
+      <c r="AI82" s="78"/>
+      <c r="AJ82" s="78"/>
+      <c r="AK82" s="78"/>
+      <c r="AL82" s="78"/>
+      <c r="AM82" s="78"/>
+      <c r="AN82" s="78"/>
+      <c r="AO82" s="78"/>
+      <c r="AP82" s="78"/>
+      <c r="AQ82" s="78"/>
+      <c r="AR82" s="78"/>
+      <c r="AS82" s="78"/>
     </row>
     <row r="83" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,43 +6231,43 @@
       <c r="AS84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M85" s="71" t="s">
+      <c r="M85" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="71" t="s">
+      <c r="N85" s="72"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="72"/>
+      <c r="S85" s="72"/>
+      <c r="T85" s="72"/>
+      <c r="U85" s="76"/>
+      <c r="V85" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="W85" s="71"/>
-      <c r="X85" s="71"/>
-      <c r="Y85" s="71"/>
-      <c r="Z85" s="71"/>
-      <c r="AA85" s="71"/>
-      <c r="AB85" s="71"/>
-      <c r="AC85" s="71"/>
-      <c r="AD85" s="71"/>
-      <c r="AE85" s="71"/>
-      <c r="AF85" s="71"/>
-      <c r="AG85" s="71"/>
-      <c r="AH85" s="71"/>
-      <c r="AI85" s="71"/>
-      <c r="AJ85" s="71"/>
-      <c r="AK85" s="71"/>
-      <c r="AL85" s="71"/>
-      <c r="AM85" s="71"/>
-      <c r="AN85" s="71"/>
-      <c r="AO85" s="71"/>
-      <c r="AP85" s="71"/>
-      <c r="AQ85" s="71"/>
-      <c r="AR85" s="71"/>
-      <c r="AS85" s="71"/>
+      <c r="W85" s="72"/>
+      <c r="X85" s="72"/>
+      <c r="Y85" s="72"/>
+      <c r="Z85" s="72"/>
+      <c r="AA85" s="72"/>
+      <c r="AB85" s="72"/>
+      <c r="AC85" s="72"/>
+      <c r="AD85" s="72"/>
+      <c r="AE85" s="72"/>
+      <c r="AF85" s="72"/>
+      <c r="AG85" s="72"/>
+      <c r="AH85" s="72"/>
+      <c r="AI85" s="72"/>
+      <c r="AJ85" s="72"/>
+      <c r="AK85" s="72"/>
+      <c r="AL85" s="72"/>
+      <c r="AM85" s="72"/>
+      <c r="AN85" s="72"/>
+      <c r="AO85" s="72"/>
+      <c r="AP85" s="72"/>
+      <c r="AQ85" s="72"/>
+      <c r="AR85" s="72"/>
+      <c r="AS85" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="500">
